--- a/ISRaD_data_files/Kleber_2005.xlsx
+++ b/ISRaD_data_files/Kleber_2005.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfromm\Documents\GitHub\ISRaD\ISRaD_data_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2A3488-04EC-4E6E-A61F-F68776F9E595}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27300" windowHeight="11300" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27300" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="1117">
   <si>
     <t>entry_name</t>
   </si>
@@ -3341,12 +3347,51 @@
   </si>
   <si>
     <t>frc_fraction_modern_sd</t>
+  </si>
+  <si>
+    <t>pro_usda_soil_order</t>
+  </si>
+  <si>
+    <t>Alfisols</t>
+  </si>
+  <si>
+    <t>Andisols</t>
+  </si>
+  <si>
+    <t>Aridisols</t>
+  </si>
+  <si>
+    <t>Entisols</t>
+  </si>
+  <si>
+    <t>Gelisols</t>
+  </si>
+  <si>
+    <t>Histosols</t>
+  </si>
+  <si>
+    <t>Inceptisols</t>
+  </si>
+  <si>
+    <t>Mollisols</t>
+  </si>
+  <si>
+    <t>Oxisols</t>
+  </si>
+  <si>
+    <t>Spodosols</t>
+  </si>
+  <si>
+    <t>Ultisols</t>
+  </si>
+  <si>
+    <t>Vertisols</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3423,7 +3468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3433,6 +3478,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3729,14 +3777,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3786,7 +3836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3833,7 +3883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3871,7 +3921,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3905,7 +3955,7 @@
       <c r="K4" t="s">
         <v>52</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="4" t="s">
         <v>53</v>
       </c>
       <c r="P4" t="s">
@@ -3924,14 +3974,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3954,7 +4004,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3977,7 +4027,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3994,7 +4044,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -4011,7 +4061,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -4028,7 +4078,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -4045,7 +4095,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -4062,7 +4112,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -4079,7 +4129,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -4096,7 +4146,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -4113,7 +4163,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -4130,7 +4180,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -4147,7 +4197,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -4176,14 +4226,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4224,76 +4276,79 @@
         <v>201</v>
       </c>
       <c r="N1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="O1" t="s">
         <v>202</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>203</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>204</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>205</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>206</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>207</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>208</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>209</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>210</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>211</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>212</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>213</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>214</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>215</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>216</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>217</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>218</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>219</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>220</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>221</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>222</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>223</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4333,77 +4388,77 @@
       <c r="M2" t="s">
         <v>232</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>233</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>234</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>235</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>236</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>237</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>238</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>239</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>240</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>241</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>242</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>243</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>244</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>245</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>246</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>247</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>248</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>249</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>250</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>251</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>252</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>253</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>254</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4431,29 +4486,26 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>260</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>261</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>262</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>259</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>188</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>263</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>264</v>
-      </c>
-      <c r="V3" t="s">
-        <v>265</v>
       </c>
       <c r="W3" t="s">
         <v>265</v>
@@ -4462,43 +4514,46 @@
         <v>265</v>
       </c>
       <c r="Y3" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z3" t="s">
         <v>266</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>267</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>268</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>269</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>270</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>271</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>188</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>272</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>273</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>274</v>
       </c>
       <c r="AI3" t="s">
         <v>274</v>
       </c>
       <c r="AJ3" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -4518,22 +4573,25 @@
         <v>278</v>
       </c>
       <c r="N4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="O4" t="s">
         <v>279</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>280</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>281</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>282</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -4553,22 +4611,25 @@
         <v>286</v>
       </c>
       <c r="N5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="O5" t="s">
         <v>287</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>280</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>281</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>282</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -4588,22 +4649,25 @@
         <v>278</v>
       </c>
       <c r="N6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="O6" t="s">
         <v>291</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>280</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>281</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>292</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -4623,22 +4687,25 @@
         <v>295</v>
       </c>
       <c r="N7" t="s">
+        <v>1111</v>
+      </c>
+      <c r="O7" t="s">
         <v>291</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>280</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>281</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>282</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -4658,22 +4725,25 @@
         <v>299</v>
       </c>
       <c r="N8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="O8" t="s">
         <v>291</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>280</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>281</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>292</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -4693,22 +4763,25 @@
         <v>303</v>
       </c>
       <c r="N9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="O9" t="s">
         <v>304</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>280</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>281</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>292</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -4728,22 +4801,25 @@
         <v>307</v>
       </c>
       <c r="N10" t="s">
+        <v>1111</v>
+      </c>
+      <c r="O10" t="s">
         <v>291</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>280</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>281</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>292</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -4763,22 +4839,25 @@
         <v>311</v>
       </c>
       <c r="N11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="O11" t="s">
         <v>287</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>280</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>281</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>292</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -4798,22 +4877,25 @@
         <v>314</v>
       </c>
       <c r="N12" t="s">
+        <v>1106</v>
+      </c>
+      <c r="O12" t="s">
         <v>315</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>280</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>281</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>316</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -4833,18 +4915,21 @@
         <v>320</v>
       </c>
       <c r="N13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="O13" t="s">
         <v>287</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>280</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>281</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>321</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4852,6 +4937,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9F367B0-6108-4ADB-BDC7-B52DF50105AD}">
+          <x14:formula1>
+            <xm:f>'controlled vocabulary'!$E$4:$E$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>N4:N1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -4860,14 +4955,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4980,7 +5075,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5090,7 +5185,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5182,16 +5277,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CT15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="X57" sqref="S57:X57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:98">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5487,7 +5582,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:98">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5783,7 +5878,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="3" spans="1:98">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6022,7 +6117,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="4" spans="1:98">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -6087,7 +6182,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="5" spans="1:98">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -6152,7 +6247,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="6" spans="1:98">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -6217,7 +6312,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="7" spans="1:98">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -6282,7 +6377,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="8" spans="1:98">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -6347,7 +6442,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="9" spans="1:98">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -6412,7 +6507,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="10" spans="1:98">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -6477,7 +6572,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="11" spans="1:98">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -6542,7 +6637,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="12" spans="1:98">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -6607,7 +6702,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="13" spans="1:98">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -6672,7 +6767,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="14" spans="1:98">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -6737,7 +6832,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="15" spans="1:98">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -6814,14 +6909,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6907,7 +7002,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6990,7 +7085,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7049,16 +7144,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+    <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1:AK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:73" ht="52">
+    <row r="1" spans="1:73" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7279,7 +7374,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="2" spans="1:73">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7497,7 +7592,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="3" spans="1:73">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7676,14 +7771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7775,7 +7870,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7858,7 +7953,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7917,14 +8012,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AS21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>861</v>
       </c>
@@ -7937,128 +8034,128 @@
       <c r="D1" t="s">
         <v>864</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>865</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>866</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>867</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>868</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>869</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>870</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>871</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>872</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>873</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>874</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>875</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>876</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>877</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>878</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>879</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>880</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>881</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>882</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>883</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>884</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>885</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>886</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>887</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>888</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>889</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>890</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>891</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>892</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>893</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>894</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>895</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>896</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>897</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>898</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>899</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>900</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>901</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>902</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>903</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -8072,150 +8169,153 @@
         <v>220</v>
       </c>
       <c r="E2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F2" t="s">
         <v>204</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>208</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>221</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>213</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>214</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>216</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>196</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>117</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>119</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>120</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>121</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>123</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>125</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>126</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>127</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>133</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>343</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>348</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>377</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>327</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>331</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>334</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>905</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>677</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>678</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>679</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>680</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>686</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>816</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>906</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>822</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>824</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>826</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>829</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>719</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>723</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>718</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>720</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>725</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
-      <c r="G3" t="s">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
         <v>907</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>908</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>909</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>908</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>785</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>910</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>912</v>
       </c>
@@ -8229,127 +8329,130 @@
         <v>915</v>
       </c>
       <c r="E4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F4" t="s">
         <v>280</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>916</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>917</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>918</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>919</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>920</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>276</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>921</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>922</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>923</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>924</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>925</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>926</v>
-      </c>
-      <c r="R4" t="s">
-        <v>914</v>
       </c>
       <c r="S4" t="s">
         <v>914</v>
       </c>
       <c r="T4" t="s">
+        <v>914</v>
+      </c>
+      <c r="U4" t="s">
         <v>927</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>928</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>929</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>930</v>
-      </c>
-      <c r="X4" t="s">
-        <v>914</v>
       </c>
       <c r="Y4" t="s">
         <v>914</v>
       </c>
       <c r="Z4" t="s">
+        <v>914</v>
+      </c>
+      <c r="AA4" t="s">
         <v>931</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>932</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>933</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>922</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>934</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>925</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>935</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>936</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>923</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>937</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>938</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>939</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>940</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>941</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>942</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>943</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>944</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>914</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>945</v>
       </c>
@@ -8360,109 +8463,112 @@
         <v>947</v>
       </c>
       <c r="E5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F5" t="s">
         <v>948</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>949</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>950</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>951</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>952</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>953</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>954</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>955</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>956</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>957</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>958</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>959</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>960</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>961</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>962</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>963</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>964</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>965</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>966</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>956</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>967</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>959</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>968</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>969</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>957</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>970</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>971</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>972</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>973</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>974</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>975</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>976</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>977</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AS5" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>978</v>
       </c>
@@ -8473,447 +8579,477 @@
         <v>979</v>
       </c>
       <c r="E6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F6" t="s">
         <v>980</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>281</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>981</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>982</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>983</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>984</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>985</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>986</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>987</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>988</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>989</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>715</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>990</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>991</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>992</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>993</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>994</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>995</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>986</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>989</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>996</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>997</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>998</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>999</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>980</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>1000</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" t="s">
         <v>1001</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
         <v>1002</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>36</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AS6" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
         <v>1004</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G7" t="s">
         <v>1005</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>1006</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>1007</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>1008</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>1009</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>1010</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>1011</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>1012</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>1013</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>1014</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>1015</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>1016</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>1010</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>1012</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>1017</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>1018</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>1019</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>1020</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
         <v>1021</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>1022</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" t="s">
         <v>1023</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AS7" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1024</v>
       </c>
       <c r="B8" t="s">
         <v>1025</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G8" t="s">
         <v>1026</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>1027</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>1028</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>1029</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>1030</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>1031</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>1032</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>1033</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>1034</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>1035</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>1036</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>980</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>1031</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>1033</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>1037</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>1038</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AO8" t="s">
         <v>1039</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
         <v>1040</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
         <v>715</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AS8" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1041</v>
       </c>
       <c r="B9" t="s">
         <v>1042</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G9" t="s">
         <v>1043</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>1044</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>1045</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>1046</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>1047</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>1048</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>1049</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>1050</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>1051</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>1052</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>1048</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
         <v>1053</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AO9" t="s">
         <v>1054</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
         <v>1055</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1057</v>
       </c>
       <c r="B10" t="s">
         <v>1058</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G10" t="s">
         <v>1059</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>1060</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>1061</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>1062</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AN10" t="s">
         <v>1063</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AO10" t="s">
         <v>1064</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
         <v>1065</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AQ10" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>1067</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G11" t="s">
         <v>1068</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>1069</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>1070</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AN11" t="s">
         <v>1071</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>1072</v>
       </c>
       <c r="AO11" t="s">
         <v>1072</v>
       </c>
       <c r="AP11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
-      <c r="H12" t="s">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I12" t="s">
         <v>1074</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>1075</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AN12" t="s">
         <v>1076</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AO12" t="s">
         <v>1077</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AP12" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
-      <c r="U13" t="s">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>1114</v>
+      </c>
+      <c r="V13" t="s">
         <v>1079</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AN13" t="s">
         <v>1080</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AO13" t="s">
         <v>1081</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AP13" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
-      <c r="U14" t="s">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="V14" t="s">
         <v>1083</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AO14" t="s">
         <v>1084</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AP14" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
-      <c r="U15" t="s">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>1116</v>
+      </c>
+      <c r="V15" t="s">
         <v>1086</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AO15" t="s">
         <v>1087</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AP15" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
-      <c r="U16" t="s">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="V16" t="s">
         <v>1089</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AO16" t="s">
         <v>1090</v>
       </c>
-      <c r="AO16" t="s">
+      <c r="AP16" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="17" spans="40:41">
-      <c r="AN17" t="s">
+    <row r="17" spans="41:42" x14ac:dyDescent="0.3">
+      <c r="AO17" t="s">
         <v>1092</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AP17" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="18" spans="40:41">
-      <c r="AN18" t="s">
+    <row r="18" spans="41:42" x14ac:dyDescent="0.3">
+      <c r="AO18" t="s">
         <v>1094</v>
       </c>
-      <c r="AO18" t="s">
+      <c r="AP18" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="19" spans="40:41">
-      <c r="AN19" t="s">
+    <row r="19" spans="41:42" x14ac:dyDescent="0.3">
+      <c r="AO19" t="s">
         <v>1096</v>
       </c>
-      <c r="AO19" t="s">
+      <c r="AP19" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="20" spans="40:41">
-      <c r="AN20" t="s">
+    <row r="20" spans="41:42" x14ac:dyDescent="0.3">
+      <c r="AO20" t="s">
         <v>1098</v>
       </c>
-      <c r="AO20" t="s">
+      <c r="AP20" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="21" spans="40:41">
-      <c r="AN21" t="s">
+    <row r="21" spans="41:42" x14ac:dyDescent="0.3">
+      <c r="AO21" t="s">
         <v>1100</v>
       </c>
     </row>
